--- a/NaceNAV.xlsx
+++ b/NaceNAV.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tronder.sharepoint.com/sites/felles-reg/Documents/Statistikk/PowerBI/Utdanning/Kompetanse kombivisninger/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tronder.sharepoint.com/sites/felles-reg/Documents/Statistikk/PowerBI/GitHub/mal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{3D83A03B-DCDF-4DF4-B5D7-54B483A0CE3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C2675B0E-5FAD-4CB4-91B4-01EB5C566CC9}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{3D83A03B-DCDF-4DF4-B5D7-54B483A0CE3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A47B138B-1483-403D-AA62-EA21BC3CBEB1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7C1447A2-C0E4-47F7-B380-ABFC1D0A5571}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7C1447A2-C0E4-47F7-B380-ABFC1D0A5571}"/>
   </bookViews>
   <sheets>
     <sheet name="Nace_Nav" sheetId="1" r:id="rId1"/>
+    <sheet name="Ark1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Nace_Nav!$B$1:$D$25</definedName>
@@ -597,7 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EC5500-21DA-4E73-AB8A-D4E3CCD46493}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
@@ -1178,13 +1179,25 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A92294B-EA3A-4E8E-9236-A01D31D6B025}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1389,18 +1402,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEA6435A-82DA-4FB0-9436-3422C1B069F7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C76017AC-A17B-4585-B4E2-51C7361D78C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1425,11 +1440,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C76017AC-A17B-4585-B4E2-51C7361D78C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEA6435A-82DA-4FB0-9436-3422C1B069F7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/NaceNAV.xlsx
+++ b/NaceNAV.xlsx
@@ -1201,8 +1201,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="11" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="ca392f09ec4657bc601066d7bc537d21">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="345553e69f630f0ba71e029dc9be3dcc" ns1:_="" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="12" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="e4a524b860cf13a8c93835716f8e4da0">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="810e635cb89f261f8aa95246a976651c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
     <xsd:element name="properties">
@@ -1223,6 +1223,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1299,6 +1300,11 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1421,22 +1427,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{438FA5F6-D236-48D8-9D1B-0DBD5E861BD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD33F2C-24F3-4C0B-BB5D-82E33D0E323D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/NaceNAV.xlsx
+++ b/NaceNAV.xlsx
@@ -1196,15 +1196,20 @@
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="12" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="e4a524b860cf13a8c93835716f8e4da0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="810e635cb89f261f8aa95246a976651c" ns1:_="" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="15" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="5d2df7d88173eed2472aac31f58c6f9b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="020ddd7b595e894bbf41ffe05b9a61ec" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <xsd:import namespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1224,6 +1229,8 @@
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1306,6 +1313,28 @@
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildemerkelapper" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="17f1e631-7134-4ce3-8a3d-482fd88a4c57" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{cfd1b471-962e-4074-a3f5-f81efd63bd54}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a65edee0-4267-4101-9877-75c307db3846">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -1427,7 +1456,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD33F2C-24F3-4C0B-BB5D-82E33D0E323D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CF05608-052B-4BC8-B143-698AD6F1E1B8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/NaceNAV.xlsx
+++ b/NaceNAV.xlsx
@@ -1205,8 +1205,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="15" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="5d2df7d88173eed2472aac31f58c6f9b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="020ddd7b595e894bbf41ffe05b9a61ec" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="16" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="a0fb7c36fac9088a608ed981e0aa11fd">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b99157ba4c61b01c0cdc0040d5e0220" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
     <xsd:import namespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
@@ -1231,6 +1231,7 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1320,6 +1321,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" elementFormDefault="qualified">
@@ -1456,7 +1462,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CF05608-052B-4BC8-B143-698AD6F1E1B8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{344FC457-5F10-437D-BFB2-F7118553AA8E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
